--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Specifies the timing context or phase (e.g., pre-stroke, admission, discharge, 3-month) in which an observation or assessment was made.</t>
+    <t>This extension captures the clinical timing context (relative phase) in which an observation or assessment was made (e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up). It is particularly important for functional outcomes and severity scores whose interpretation depends on *when* they were assessed.
+The extension complements Observation.effective[x]:
+- effective[x] records the actual date/time (when known),
+- this extension records the standardized phase label used for reporting and comparability across sites.
+The value is a required CodeableConcept bound to AssessmentContextVS (required), ensuring only supported timing contexts are used in this implementation guide.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,17 +257,8 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>n/a,N/A</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -866,10 +857,10 @@
         <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -932,18 +923,18 @@
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -954,25 +945,25 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1023,30 +1014,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1069,13 +1060,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1114,19 +1105,19 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1138,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1146,10 +1137,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1157,10 +1148,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1172,16 +1163,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1231,13 +1222,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1246,15 +1237,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1262,10 +1253,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1277,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1310,11 +1301,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1332,22 +1323,22 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,11 +81,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This extension captures the clinical timing context (relative phase) in which an observation or assessment was made (e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up). It is particularly important for functional outcomes and severity scores whose interpretation depends on *when* they were assessed.
-The extension complements Observation.effective[x]:
-- effective[x] records the actual date/time (when known),
-- this extension records the standardized phase label used for reporting and comparability across sites.
-The value is a required CodeableConcept bound to AssessmentContextVS (required), ensuring only supported timing contexts are used in this implementation guide.</t>
+    <t>This extension captures the **clinical timing context (phase)** in which an observation or assessment was made
+(e.g., pre-stroke baseline, admission, discharge, ~3-month follow-up).
+**Primary use-case**
+- Required for functional outcomes and severity scores whose interpretation depends on *when* the score was assessed.
+**How it complements Observation.effective[x]**
+- `effective[x]` records the actual measurement date/time (when known),
+- This extension records the standardized phase label used for reporting and cross-site comparability.
+**Binding**
+- `valueCodeableConcept` is bound (required) to AssessmentContextVS.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-timing-context-ext.xlsx
+++ b/StructureDefinition-observation-timing-context-ext.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
